--- a/evaluation/results/isolation_forest/augmented/shift_4/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_4/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
       <c r="C2">
-        <v>0.8955696202531646</v>
+        <v>0.5613463626492943</v>
       </c>
       <c r="D2">
-        <v>0.5299625468164794</v>
+        <v>0.9681647940074907</v>
       </c>
       <c r="E2">
-        <v>0.6658823529411765</v>
+        <v>0.7106529209621993</v>
       </c>
       <c r="F2">
-        <v>0.5770799347471451</v>
+        <v>0.8456002616944717</v>
       </c>
       <c r="G2">
-        <v>0.5384165081223474</v>
+        <v>0.9419101674724967</v>
       </c>
       <c r="H2">
-        <v>0.7340823970037453</v>
+        <v>0.813400384351022</v>
       </c>
       <c r="I2">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="K2">
-        <v>501</v>
+        <v>130</v>
       </c>
       <c r="L2">
-        <v>251</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6662234042553191</v>
+        <v>0.8843537414965986</v>
       </c>
       <c r="C2">
-        <v>0.9382022471910112</v>
+        <v>0.2434456928838951</v>
       </c>
       <c r="D2">
-        <v>0.7791601866251944</v>
+        <v>0.381791483113069</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8955696202531646</v>
+        <v>0.5613463626492943</v>
       </c>
       <c r="C3">
-        <v>0.5299625468164794</v>
+        <v>0.9681647940074907</v>
       </c>
       <c r="D3">
-        <v>0.6658823529411765</v>
+        <v>0.7106529209621993</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
       <c r="C4">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
       <c r="D4">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
       <c r="E4">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7808965122542418</v>
+        <v>0.7228500520729464</v>
       </c>
       <c r="C5">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
       <c r="D5">
-        <v>0.7225212697831854</v>
+        <v>0.5462222020376342</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7808965122542418</v>
+        <v>0.7228500520729465</v>
       </c>
       <c r="C6">
-        <v>0.7340823970037453</v>
+        <v>0.6058052434456929</v>
       </c>
       <c r="D6">
-        <v>0.7225212697831854</v>
+        <v>0.5462222020376342</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>501</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>283</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
